--- a/DataSet/Integration_DataSet/TL/FXRates_GSFile/EU/TL_FX_04_Files/TL_Transformed_Data_XMLFXRates0.xlsx
+++ b/DataSet/Integration_DataSet/TL/FXRates_GSFile/EU/TL_FX_04_Files/TL_Transformed_Data_XMLFXRates0.xlsx
@@ -482,22 +482,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.009881661178392</t>
+          <t>0.012188620362748</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.008951669934026</t>
+          <t>0.031093686209359</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.006875859654353</t>
+          <t>0.891194110989315</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -522,22 +522,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.009881562555676</t>
+          <t>0.012188485172403</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.008951589001039</t>
+          <t>0.031093338159019</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.00687580244912</t>
+          <t>0.128645988110538</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -562,22 +562,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.009881463934929</t>
+          <t>0.012188351470616</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.008951508069516</t>
+          <t>0.031092999784215</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.006875745244838</t>
+          <t>0.645953103804664</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -602,22 +602,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.009881366292565</t>
+          <t>0.012188216286236</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.008951427139456</t>
+          <t>0.031092661416774</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.006875688514259</t>
+          <t>0.103382681333223</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -642,22 +642,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.009881267675735</t>
+          <t>0.012188082590348</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.008951346210859</t>
+          <t>0.031092313389376</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.006875631311873</t>
+          <t>0.134901791495791</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.094930471915033</t>
+          <t>2.552062066149449</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.999990000099999</t>
+          <t>1.115038524581024</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -722,22 +722,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.099403578528827</t>
+          <t>0.110398427926386</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.099000099000099</t>
+          <t>0.28169014084507</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.082918739635158</t>
+          <t>0.884955752212389</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -762,22 +762,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.009880972813393</t>
+          <t>0.012187678549491</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.008951022511106</t>
+          <t>0.031090940690611</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.006875460183144</t>
+          <t>0.006103143118706</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -802,22 +802,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.009880875180734</t>
+          <t>0.012187543380037</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.008951103433849</t>
+          <t>0.0310912790206</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.006875403457269</t>
+          <t>0.007790103452574</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -842,22 +842,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.009880678944925</t>
+          <t>0.012187274535421</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.008950860670008</t>
+          <t>0.031090254386679</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.006875346259626</t>
+          <t>0.043591732043367</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -882,22 +882,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.009880580341815</t>
+          <t>0.012187140860193</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.008950779751653</t>
+          <t>0.03108991607899</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.006875289535631</t>
+          <t>0.062762819305843</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -922,22 +922,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.009880776573706</t>
+          <t>0.012187409698911</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.008950941589825</t>
+          <t>0.031090592701732</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.006875232339883</t>
+          <t>0.113310595673801</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -962,22 +962,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.009880481740672</t>
+          <t>0.012187005702666</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.008950698834762</t>
+          <t>0.031089568113047</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.006875175145087</t>
+          <t>0.128627289565754</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1002,22 +1002,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.010009191083639</t>
+          <t>1.000080006400512</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.086625086625087</t>
+          <t>0.312675880182603</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.008349130803049</t>
+          <t>0.637169945967989</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1042,22 +1042,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.009880285520491</t>
+          <t>0.01218673688177</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.008950537005369</t>
+          <t>0.03108888186971</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.006875061231014</t>
+          <t>0.097720378998718</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1082,22 +1082,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.009880089308103</t>
+          <t>0.012186468072733</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.008950456092866</t>
+          <t>0.031088533926917</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.006875004511722</t>
+          <t>0.097720378998718</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1122,22 +1122,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.009880187901414</t>
+          <t>0.012186601733203</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.008950375181827</t>
+          <t>0.031088195656668</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.006874947320716</t>
+          <t>0.097785165990319</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1162,22 +1162,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.009879990716761</t>
+          <t>0.012186332930128</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.00895029427225</t>
+          <t>0.031087857393781</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.006874890130662</t>
+          <t>0.097706248119155</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1202,22 +1202,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.000120014401728</t>
+          <t>1.000130016902197</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.095062363801619</t>
+          <t>2.552452907243862</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.000100010001</t>
+          <t>8.015389547932029</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">

--- a/DataSet/Integration_DataSet/TL/FXRates_GSFile/EU/TL_FX_04_Files/TL_Transformed_Data_XMLFXRates0.xlsx
+++ b/DataSet/Integration_DataSet/TL/FXRates_GSFile/EU/TL_FX_04_Files/TL_Transformed_Data_XMLFXRates0.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="270" yWindow="360" windowWidth="21600" windowHeight="15240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transformed_FXRates" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1" calcOnSave="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -71,13 +71,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,7 +391,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -406,7 +407,8 @@
     <col width="14.42578125" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
     <col width="18.140625" customWidth="1" style="3" min="10" max="10"/>
     <col width="9.28515625" customWidth="1" style="3" min="11" max="11"/>
-    <col width="8.85546875" customWidth="1" style="2" min="12" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="2" min="12" max="13"/>
+    <col width="8.85546875" customWidth="1" style="2" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -487,7 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.031093686209359</t>
+          <t>0.034387103185724</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -495,9 +497,9 @@
           <t>0.891194110989315</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -527,7 +529,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.031093338159019</t>
+          <t>0.034386712974107</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -535,9 +537,9 @@
           <t>0.128645988110538</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -567,7 +569,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.031092999784215</t>
+          <t>0.034386334595541</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -575,9 +577,9 @@
           <t>0.645953103804664</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -607,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.031092661416774</t>
+          <t>0.034385956225302</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -615,9 +617,9 @@
           <t>0.103382681333223</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -647,7 +649,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.031092313389376</t>
+          <t>0.03438557786339</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -655,9 +657,9 @@
           <t>0.134901791495791</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -687,7 +689,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.552062066149449</t>
+          <t>2.822387175072676</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -695,9 +697,9 @@
           <t>1.115038524581024</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -727,7 +729,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.28169014084507</t>
+          <t>0.311526479750779</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -735,9 +737,9 @@
           <t>0.884955752212389</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -767,7 +769,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.031090940690611</t>
+          <t>0.034384064499004</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -775,9 +777,9 @@
           <t>0.006103143118706</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -807,7 +809,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0310912790206</t>
+          <t>0.034384442827612</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -815,9 +817,9 @@
           <t>0.007790103452574</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -847,7 +849,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.031090254386679</t>
+          <t>0.034383307866763</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -855,9 +857,9 @@
           <t>0.043591732043367</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -887,7 +889,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.03108991607899</t>
+          <t>0.034382917741276</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -895,9 +897,9 @@
           <t>0.062762819305843</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -927,7 +929,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.031090592701732</t>
+          <t>0.034383686178721</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -935,9 +937,9 @@
           <t>0.113310595673801</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -967,7 +969,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.031089568113047</t>
+          <t>0.034382539446228</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -975,9 +977,9 @@
           <t>0.128627289565754</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1007,7 +1009,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.312675880182603</t>
+          <t>0.345794618744143</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1015,9 +1017,9 @@
           <t>0.637169945967989</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1047,7 +1049,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.03108888186971</t>
+          <t>0.034381782881104</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1055,9 +1057,9 @@
           <t>0.097720378998718</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1087,7 +1089,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.031088533926917</t>
+          <t>0.034381404611028</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1095,9 +1097,9 @@
           <t>0.097720378998718</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1127,7 +1129,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.031088195656668</t>
+          <t>0.034381026349275</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1135,9 +1137,9 @@
           <t>0.097785165990319</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1167,7 +1169,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.031087857393781</t>
+          <t>0.034380648095845</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1175,9 +1177,9 @@
           <t>0.097706248119155</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1207,7 +1209,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.552452907243862</t>
+          <t>2.822785524755829</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1215,9 +1217,9 @@
           <t>8.015389547932029</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
